--- a/code/vocab_csv/mappings.xlsx
+++ b/code/vocab_csv/mappings.xlsx
@@ -374,6 +374,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.5"/>
+    <col customWidth="1" min="2" max="2" width="35.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
